--- a/output/omg_phase1_levels.xlsx
+++ b/output/omg_phase1_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COIN_TOP30" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LEVELS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SKIPPED" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COIN_TOP30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LEVELS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SKIPPED" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2237807393217</v>
+        <v>2205313143818</v>
       </c>
       <c r="F2" t="n">
-        <v>112363</v>
+        <v>110723</v>
       </c>
     </row>
     <row r="3">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>533211494868</v>
+        <v>519011643843</v>
       </c>
       <c r="F3" t="n">
-        <v>4415.91</v>
+        <v>4298.99</v>
       </c>
     </row>
     <row r="4">
@@ -595,24 +595,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ripple</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>USDT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>169164430978</v>
+        <v>168898926035</v>
       </c>
       <c r="F4" t="n">
-        <v>2.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -621,24 +621,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>ripple</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tether</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>168570533232</v>
+        <v>167852817918</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>118414111925</v>
+        <v>119284043527</v>
       </c>
       <c r="F6" t="n">
-        <v>850.9</v>
+        <v>856.9</v>
       </c>
     </row>
     <row r="7">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>111892871910</v>
+        <v>109609507772</v>
       </c>
       <c r="F7" t="n">
-        <v>206.63</v>
+        <v>202.44</v>
       </c>
     </row>
     <row r="8">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72557454021</v>
+        <v>72563929025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999902</v>
+        <v>0.9998320000000001</v>
       </c>
     </row>
     <row r="9">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38318344066</v>
+        <v>37236239532</v>
       </c>
       <c r="F9" t="n">
-        <v>4409.82</v>
+        <v>4291.68</v>
       </c>
     </row>
     <row r="10">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32687177135</v>
+        <v>32514062816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.216775</v>
+        <v>0.215575</v>
       </c>
     </row>
     <row r="11">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31935631622</v>
+        <v>31303024534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.33738</v>
+        <v>0.330689</v>
       </c>
     </row>
     <row r="12">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30356159098</v>
+        <v>30103272539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.831749</v>
+        <v>0.824844</v>
       </c>
     </row>
     <row r="13">
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16888819884</v>
+        <v>16430251934</v>
       </c>
       <c r="F13" t="n">
-        <v>5349.46</v>
+        <v>5205.13</v>
       </c>
     </row>
     <row r="14">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15487983860</v>
+        <v>15043551713</v>
       </c>
       <c r="F14" t="n">
-        <v>22.82</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="15">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14578717094</v>
+        <v>14186697057</v>
       </c>
       <c r="F15" t="n">
-        <v>4757.51</v>
+        <v>4629.92</v>
       </c>
     </row>
     <row r="16">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14294667964</v>
+        <v>14137850972</v>
       </c>
       <c r="F16" t="n">
-        <v>112349</v>
+        <v>111111</v>
       </c>
     </row>
     <row r="17">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12704267488</v>
+        <v>12742328960</v>
       </c>
       <c r="F17" t="n">
-        <v>46.99</v>
+        <v>47.04</v>
       </c>
     </row>
     <row r="18">
@@ -959,24 +959,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>figure-heloc</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGR_HELOC</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Figure Heloc</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12658973989</v>
+        <v>12709265608</v>
       </c>
       <c r="F18" t="n">
-        <v>1.034</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="19">
@@ -985,24 +985,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>figure-heloc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>FIGR_HELOC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Figure Heloc</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12627169701</v>
+        <v>12297335271</v>
       </c>
       <c r="F19" t="n">
-        <v>1.001</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="20">
@@ -1011,24 +1011,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12094760231</v>
+        <v>12173741181</v>
       </c>
       <c r="F20" t="n">
-        <v>3.39</v>
+        <v>610.99</v>
       </c>
     </row>
     <row r="21">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wrapped-eeth</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WEETH</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11929587540</v>
+        <v>12031748325</v>
       </c>
       <c r="F21" t="n">
-        <v>4740.83</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="22">
@@ -1063,24 +1063,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>wrapped-eeth</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>WEETH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Wrapped eETH</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11894800933</v>
+        <v>11577871234</v>
       </c>
       <c r="F22" t="n">
-        <v>597.02</v>
+        <v>4612.13</v>
       </c>
     </row>
     <row r="23">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11494204051</v>
+        <v>11348040784</v>
       </c>
       <c r="F23" t="n">
-        <v>0.362433</v>
+        <v>0.357711</v>
       </c>
     </row>
     <row r="24">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10459047397</v>
+        <v>10238256291</v>
       </c>
       <c r="F24" t="n">
-        <v>24.77</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="25">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9943607216</v>
+        <v>9718610601</v>
       </c>
       <c r="F25" t="n">
-        <v>4417.9</v>
+        <v>4299.45</v>
       </c>
     </row>
     <row r="26">
@@ -1167,24 +1167,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9351153653</v>
+        <v>9229728704</v>
       </c>
       <c r="F26" t="n">
-        <v>0.220534</v>
+        <v>0.274833</v>
       </c>
     </row>
     <row r="27">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9002751738</v>
+        <v>9168144021</v>
       </c>
       <c r="F27" t="n">
-        <v>0.267859</v>
+        <v>0.216182</v>
       </c>
     </row>
     <row r="28">
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8797694415</v>
+        <v>8831967754</v>
       </c>
       <c r="F28" t="n">
-        <v>9.529999999999999</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="29">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8613382842</v>
+        <v>8494755723</v>
       </c>
       <c r="F29" t="n">
-        <v>112.89</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="30">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8173930132</v>
+        <v>8141708079</v>
       </c>
       <c r="F30" t="n">
-        <v>0.999709</v>
+        <v>0.9997549999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8030331180</v>
+        <v>7912865884</v>
       </c>
       <c r="F31" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1699,7 +1699,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1887,7 +1887,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1981,7 +1981,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2075,7 +2075,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2263,7 +2263,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2357,7 +2357,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2545,50 +2545,50 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.3687</v>
+        <v>719.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3.006472</v>
+        <v>402.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.791724</v>
+        <v>374.14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.469602</v>
+        <v>330.97</v>
       </c>
       <c r="I13" t="n">
-        <v>2.201167</v>
+        <v>294.995</v>
       </c>
       <c r="J13" t="n">
-        <v>1.879045</v>
+        <v>251.825</v>
       </c>
       <c r="K13" t="n">
-        <v>1.503236</v>
+        <v>201.46</v>
       </c>
       <c r="L13" t="n">
-        <v>1.127427</v>
+        <v>151.095</v>
       </c>
       <c r="M13" t="n">
-        <v>1.020053</v>
+        <v>136.705</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
@@ -2639,50 +2639,50 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>719.5</v>
+        <v>5.3687</v>
       </c>
       <c r="F14" t="n">
-        <v>402.92</v>
+        <v>3.006472</v>
       </c>
       <c r="G14" t="n">
-        <v>374.14</v>
+        <v>2.791724</v>
       </c>
       <c r="H14" t="n">
-        <v>330.97</v>
+        <v>2.469602</v>
       </c>
       <c r="I14" t="n">
-        <v>294.995</v>
+        <v>2.201167</v>
       </c>
       <c r="J14" t="n">
-        <v>251.825</v>
+        <v>1.879045</v>
       </c>
       <c r="K14" t="n">
-        <v>201.46</v>
+        <v>1.503236</v>
       </c>
       <c r="L14" t="n">
-        <v>151.095</v>
+        <v>1.127427</v>
       </c>
       <c r="M14" t="n">
-        <v>136.705</v>
+        <v>1.020053</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
@@ -2733,7 +2733,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2827,7 +2827,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3015,7 +3015,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3109,7 +3109,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3384,22 +3384,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>figure-heloc</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FIGR_HELOC</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Figure Heloc</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
@@ -3409,28 +3409,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>figure-heloc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>FIGR_HELOC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Figure Heloc</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>

--- a/output/omg_phase1_levels.xlsx
+++ b/output/omg_phase1_levels.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="COIN_TOP30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="COIN_TOP50" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LEVELS" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="SKIPPED" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,9 +498,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
   </cols>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2205313143818</v>
+        <v>2207260911486</v>
       </c>
       <c r="F2" t="n">
-        <v>110723</v>
+        <v>110824</v>
       </c>
     </row>
     <row r="3">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>519011643843</v>
+        <v>519668434959</v>
       </c>
       <c r="F3" t="n">
-        <v>4298.99</v>
+        <v>4305.56</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>168898926035</v>
+        <v>168900356033</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>167852817918</v>
+        <v>168085800116</v>
       </c>
       <c r="F5" t="n">
         <v>2.82</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>119284043527</v>
+        <v>119432815184</v>
       </c>
       <c r="F6" t="n">
-        <v>856.9</v>
+        <v>858.29</v>
       </c>
     </row>
     <row r="7">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>109609507772</v>
+        <v>109814431286</v>
       </c>
       <c r="F7" t="n">
-        <v>202.44</v>
+        <v>202.99</v>
       </c>
     </row>
     <row r="8">
@@ -713,608 +713,920 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72563929025</v>
+        <v>72563455990</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998320000000001</v>
+        <v>0.999815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>staked-ether</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STETH</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lido Staked Ether</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37236239532</v>
+        <v>32563674818</v>
       </c>
       <c r="F9" t="n">
-        <v>4291.68</v>
+        <v>0.216015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32514062816</v>
+        <v>31335712068</v>
       </c>
       <c r="F10" t="n">
-        <v>0.215575</v>
+        <v>0.331044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31303024534</v>
+        <v>30085248039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.330689</v>
+        <v>0.824472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30103272539</v>
+        <v>15050437950</v>
       </c>
       <c r="F12" t="n">
-        <v>0.824844</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wrapped-steth</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WSTETH</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16430251934</v>
+        <v>12711530805</v>
       </c>
       <c r="F13" t="n">
-        <v>5205.13</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15043551713</v>
+        <v>12691982705</v>
       </c>
       <c r="F14" t="n">
-        <v>22.18</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wrapped-beacon-eth</t>
+          <t>figure-heloc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WBETH</t>
+          <t>FIGR_HELOC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wrapped Beacon ETH</t>
+          <t>Figure Heloc</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14186697057</v>
+        <v>12297335271</v>
       </c>
       <c r="F15" t="n">
-        <v>4629.92</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wrapped-bitcoin</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WBTC</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wrapped Bitcoin</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14137850972</v>
+        <v>12203654764</v>
       </c>
       <c r="F16" t="n">
-        <v>111111</v>
+        <v>612.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12742328960</v>
+        <v>12062855143</v>
       </c>
       <c r="F17" t="n">
-        <v>47.04</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12709265608</v>
+        <v>11338022007</v>
       </c>
       <c r="F18" t="n">
-        <v>1.001</v>
+        <v>0.35748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>figure-heloc</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FIGR_HELOC</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Figure Heloc</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12297335271</v>
+        <v>10233702321</v>
       </c>
       <c r="F19" t="n">
-        <v>1.004</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12173741181</v>
+        <v>9205584102</v>
       </c>
       <c r="F20" t="n">
-        <v>610.99</v>
+        <v>0.21724</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12031748325</v>
+        <v>9183611840</v>
       </c>
       <c r="F21" t="n">
-        <v>3.37</v>
+        <v>0.273154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>wrapped-eeth</t>
+          <t>leo-token</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WEETH</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11577871234</v>
+        <v>8815093349</v>
       </c>
       <c r="F22" t="n">
-        <v>4612.13</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11348040784</v>
+        <v>8510975505</v>
       </c>
       <c r="F23" t="n">
-        <v>0.357711</v>
+        <v>111.61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10238256291</v>
+        <v>8140857490</v>
       </c>
       <c r="F24" t="n">
-        <v>24.24</v>
+        <v>0.999763</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9718610601</v>
+        <v>7905002936</v>
       </c>
       <c r="F25" t="n">
-        <v>4299.45</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9229728704</v>
+        <v>7249061873</v>
       </c>
       <c r="F26" t="n">
-        <v>0.274833</v>
+        <v>1.231e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>WBT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9168144021</v>
+        <v>6116317449</v>
       </c>
       <c r="F27" t="n">
-        <v>0.216182</v>
+        <v>42.44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>leo-token</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8831967754</v>
+        <v>5827749584</v>
       </c>
       <c r="F28" t="n">
-        <v>9.57</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>ethena-staked-usde</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>SUSDE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Ethena Staked USDe</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8494755723</v>
+        <v>5699655002</v>
       </c>
       <c r="F29" t="n">
-        <v>111.38</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8141708079</v>
+        <v>5591278285</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9997549999999999</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7912865884</v>
+        <v>5126478688</v>
       </c>
       <c r="F31" t="n">
-        <v>3.08</v>
+        <v>0.744169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>world-liberty-financial</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>WLFI</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>World Liberty Financial</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5042687377</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.184599</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>monero</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>XMR</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Monero</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4978639869</v>
+      </c>
+      <c r="F33" t="n">
+        <v>269.94</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AAVE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4601951315</v>
+      </c>
+      <c r="F34" t="n">
+        <v>302.33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dai</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4520807580</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999592</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>bitget-token</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BGB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bitget Token</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4404756167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>44</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pepe</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4066373197</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.660000000000001e-06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3851916915</v>
+      </c>
+      <c r="F38" t="n">
+        <v>183.54</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>46</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mantle</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mantle</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3766638226</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>47</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ethereum-classic</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3130189300</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>48</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>bittensor</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Bittensor</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3039923853</v>
+      </c>
+      <c r="F41" t="n">
+        <v>316.64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>49</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>jito-staked-sol</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>JITOSOL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Jito Staked SOL</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2998497927</v>
+      </c>
+      <c r="F42" t="n">
+        <v>249.29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NEAR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NEAR Protocol</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2983712619</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.39</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,17 +1649,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
@@ -1389,7 +1701,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>H(3y_high)</t>
+          <t>H(5y_cycle_high)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -2282,31 +2594,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.94</v>
+        <v>27.87</v>
       </c>
       <c r="F10" t="n">
-        <v>17.3264</v>
+        <v>15.6072</v>
       </c>
       <c r="G10" t="n">
-        <v>16.0888</v>
+        <v>14.4924</v>
       </c>
       <c r="H10" t="n">
-        <v>14.2324</v>
+        <v>12.8202</v>
       </c>
       <c r="I10" t="n">
-        <v>12.6854</v>
+        <v>11.4267</v>
       </c>
       <c r="J10" t="n">
-        <v>10.829</v>
+        <v>9.7545</v>
       </c>
       <c r="K10" t="n">
-        <v>8.6632</v>
+        <v>7.8036</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4974</v>
+        <v>5.8527</v>
       </c>
       <c r="M10" t="n">
-        <v>5.8786</v>
+        <v>5.2953</v>
       </c>
       <c r="N10" t="n">
         <v>10</v>
@@ -2362,45 +2674,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wrapped-beacon-eth</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WBETH</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wrapped Beacon ETH</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7666.66</v>
+        <v>634.3</v>
       </c>
       <c r="F11" t="n">
-        <v>4293.3296</v>
+        <v>355.208</v>
       </c>
       <c r="G11" t="n">
-        <v>3986.6632</v>
+        <v>329.836</v>
       </c>
       <c r="H11" t="n">
-        <v>3526.6636</v>
+        <v>291.778</v>
       </c>
       <c r="I11" t="n">
-        <v>3143.3306</v>
+        <v>260.063</v>
       </c>
       <c r="J11" t="n">
-        <v>2683.331</v>
+        <v>222.005</v>
       </c>
       <c r="K11" t="n">
-        <v>2146.6648</v>
+        <v>177.604</v>
       </c>
       <c r="L11" t="n">
-        <v>1609.9986</v>
+        <v>133.203</v>
       </c>
       <c r="M11" t="n">
-        <v>1456.6654</v>
+        <v>120.517</v>
       </c>
       <c r="N11" t="n">
         <v>10</v>
@@ -2456,45 +2768,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wrapped-bitcoin</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WBTC</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wrapped Bitcoin</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>124346.29</v>
+        <v>4.4436</v>
       </c>
       <c r="F12" t="n">
-        <v>69633.9224</v>
+        <v>2.488416</v>
       </c>
       <c r="G12" t="n">
-        <v>64660.0708</v>
+        <v>2.310672</v>
       </c>
       <c r="H12" t="n">
-        <v>57199.2934</v>
+        <v>2.044056</v>
       </c>
       <c r="I12" t="n">
-        <v>50981.9789</v>
+        <v>1.821876</v>
       </c>
       <c r="J12" t="n">
-        <v>43521.2015</v>
+        <v>1.55526</v>
       </c>
       <c r="K12" t="n">
-        <v>34816.9612</v>
+        <v>1.244208</v>
       </c>
       <c r="L12" t="n">
-        <v>26112.7209</v>
+        <v>0.933156</v>
       </c>
       <c r="M12" t="n">
-        <v>23625.7951</v>
+        <v>0.844284</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2550,45 +2862,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>719.5</v>
+        <v>0.5206</v>
       </c>
       <c r="F13" t="n">
-        <v>402.92</v>
+        <v>0.291536</v>
       </c>
       <c r="G13" t="n">
-        <v>374.14</v>
+        <v>0.270712</v>
       </c>
       <c r="H13" t="n">
-        <v>330.97</v>
+        <v>0.239476</v>
       </c>
       <c r="I13" t="n">
-        <v>294.995</v>
+        <v>0.213446</v>
       </c>
       <c r="J13" t="n">
-        <v>251.825</v>
+        <v>0.18221</v>
       </c>
       <c r="K13" t="n">
-        <v>201.46</v>
+        <v>0.145768</v>
       </c>
       <c r="L13" t="n">
-        <v>151.095</v>
+        <v>0.109326</v>
       </c>
       <c r="M13" t="n">
-        <v>136.705</v>
+        <v>0.098914</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
@@ -2644,45 +2956,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.3687</v>
+        <v>55.79</v>
       </c>
       <c r="F14" t="n">
-        <v>3.006472</v>
+        <v>31.2424</v>
       </c>
       <c r="G14" t="n">
-        <v>2.791724</v>
+        <v>29.0108</v>
       </c>
       <c r="H14" t="n">
-        <v>2.469602</v>
+        <v>25.6634</v>
       </c>
       <c r="I14" t="n">
-        <v>2.201167</v>
+        <v>22.8739</v>
       </c>
       <c r="J14" t="n">
-        <v>1.879045</v>
+        <v>19.5265</v>
       </c>
       <c r="K14" t="n">
-        <v>1.503236</v>
+        <v>15.6212</v>
       </c>
       <c r="L14" t="n">
-        <v>1.127427</v>
+        <v>11.7159</v>
       </c>
       <c r="M14" t="n">
-        <v>1.020053</v>
+        <v>10.6001</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
@@ -2738,45 +3050,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6374</v>
+        <v>0.305</v>
       </c>
       <c r="F15" t="n">
-        <v>0.356944</v>
+        <v>0.1708</v>
       </c>
       <c r="G15" t="n">
-        <v>0.331448</v>
+        <v>0.1586</v>
       </c>
       <c r="H15" t="n">
-        <v>0.293204</v>
+        <v>0.1403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.261334</v>
+        <v>0.12505</v>
       </c>
       <c r="J15" t="n">
-        <v>0.22309</v>
+        <v>0.10675</v>
       </c>
       <c r="K15" t="n">
-        <v>0.178472</v>
+        <v>0.0854</v>
       </c>
       <c r="L15" t="n">
-        <v>0.133854</v>
+        <v>0.06405</v>
       </c>
       <c r="M15" t="n">
-        <v>0.121106</v>
+        <v>0.05795</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
@@ -2832,45 +3144,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>65.39</v>
+        <v>147.06</v>
       </c>
       <c r="F16" t="n">
-        <v>36.6184</v>
+        <v>82.3536</v>
       </c>
       <c r="G16" t="n">
-        <v>34.0028</v>
+        <v>76.4712</v>
       </c>
       <c r="H16" t="n">
-        <v>30.0794</v>
+        <v>67.6476</v>
       </c>
       <c r="I16" t="n">
-        <v>26.8099</v>
+        <v>60.2946</v>
       </c>
       <c r="J16" t="n">
-        <v>22.8865</v>
+        <v>51.471</v>
       </c>
       <c r="K16" t="n">
-        <v>18.3092</v>
+        <v>41.1768</v>
       </c>
       <c r="L16" t="n">
-        <v>13.7319</v>
+        <v>30.8826</v>
       </c>
       <c r="M16" t="n">
-        <v>12.4241</v>
+        <v>27.9414</v>
       </c>
       <c r="N16" t="n">
         <v>10</v>
@@ -2926,45 +3238,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.40139</v>
+        <v>3.3e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.224778</v>
+        <v>1.9e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.208723</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.184639</v>
+        <v>1.5e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.16457</v>
+        <v>1.4e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.140486</v>
+        <v>1.2e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.112389</v>
+        <v>9e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08429200000000001</v>
+        <v>7e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>0.076264</v>
+        <v>6e-06</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -3020,45 +3332,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>147.06</v>
+        <v>11.649</v>
       </c>
       <c r="F18" t="n">
-        <v>82.3536</v>
+        <v>6.52344</v>
       </c>
       <c r="G18" t="n">
-        <v>76.4712</v>
+        <v>6.05748</v>
       </c>
       <c r="H18" t="n">
-        <v>67.6476</v>
+        <v>5.35854</v>
       </c>
       <c r="I18" t="n">
-        <v>60.2946</v>
+        <v>4.77609</v>
       </c>
       <c r="J18" t="n">
-        <v>51.471</v>
+        <v>4.07715</v>
       </c>
       <c r="K18" t="n">
-        <v>41.1768</v>
+        <v>3.26172</v>
       </c>
       <c r="L18" t="n">
-        <v>30.8826</v>
+        <v>2.44629</v>
       </c>
       <c r="M18" t="n">
-        <v>27.9414</v>
+        <v>2.21331</v>
       </c>
       <c r="N18" t="n">
         <v>10</v>
@@ -3114,45 +3426,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.269</v>
+        <v>12.3</v>
       </c>
       <c r="F19" t="n">
-        <v>4.07064</v>
+        <v>6.888</v>
       </c>
       <c r="G19" t="n">
-        <v>3.77988</v>
+        <v>6.396</v>
       </c>
       <c r="H19" t="n">
-        <v>3.34374</v>
+        <v>5.658</v>
       </c>
       <c r="I19" t="n">
-        <v>2.98029</v>
+        <v>5.043</v>
       </c>
       <c r="J19" t="n">
-        <v>2.54415</v>
+        <v>4.305</v>
       </c>
       <c r="K19" t="n">
-        <v>2.03532</v>
+        <v>3.444</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52649</v>
+        <v>2.583</v>
       </c>
       <c r="M19" t="n">
-        <v>1.38111</v>
+        <v>2.337</v>
       </c>
       <c r="N19" t="n">
         <v>10</v>
@@ -3197,6 +3509,570 @@
         <v>200</v>
       </c>
       <c r="AB19" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ethena</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ethena</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8555</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.47908</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.44486</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.39353</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.350755</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.299425</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.23954</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.179655</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.162545</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="n">
+        <v>20</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>100</v>
+      </c>
+      <c r="W20" t="n">
+        <v>100</v>
+      </c>
+      <c r="X20" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>aave</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AAVE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Aave</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>385.99</v>
+      </c>
+      <c r="F21" t="n">
+        <v>216.1544</v>
+      </c>
+      <c r="G21" t="n">
+        <v>200.7148</v>
+      </c>
+      <c r="H21" t="n">
+        <v>177.5554</v>
+      </c>
+      <c r="I21" t="n">
+        <v>158.2559</v>
+      </c>
+      <c r="J21" t="n">
+        <v>135.0965</v>
+      </c>
+      <c r="K21" t="n">
+        <v>108.0772</v>
+      </c>
+      <c r="L21" t="n">
+        <v>81.0579</v>
+      </c>
+      <c r="M21" t="n">
+        <v>73.3381</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
+        <v>20</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="n">
+        <v>20</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>100</v>
+      </c>
+      <c r="W21" t="n">
+        <v>100</v>
+      </c>
+      <c r="X21" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>pepe</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.6e-05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9e-06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8e-06</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7e-06</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>100</v>
+      </c>
+      <c r="W22" t="n">
+        <v>100</v>
+      </c>
+      <c r="X22" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ethereum-classic</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22.3832</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20.7844</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18.3862</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.3877</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13.9895</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11.1916</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.393700000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.5943</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>20</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="n">
+        <v>20</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>100</v>
+      </c>
+      <c r="W23" t="n">
+        <v>100</v>
+      </c>
+      <c r="X23" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bittensor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Bittensor</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>500</v>
+      </c>
+      <c r="F24" t="n">
+        <v>280</v>
+      </c>
+      <c r="G24" t="n">
+        <v>260</v>
+      </c>
+      <c r="H24" t="n">
+        <v>230</v>
+      </c>
+      <c r="I24" t="n">
+        <v>205</v>
+      </c>
+      <c r="J24" t="n">
+        <v>175</v>
+      </c>
+      <c r="K24" t="n">
+        <v>140</v>
+      </c>
+      <c r="L24" t="n">
+        <v>105</v>
+      </c>
+      <c r="M24" t="n">
+        <v>95</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" t="n">
+        <v>20</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="n">
+        <v>20</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>100</v>
+      </c>
+      <c r="W24" t="n">
+        <v>100</v>
+      </c>
+      <c r="X24" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NEAR</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NEAR Protocol</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>8.244</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.61664</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.28688</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.79224</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.38004</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.8854</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.30832</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.73124</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.56636</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" t="n">
+        <v>20</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="n">
+        <v>20</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>100</v>
+      </c>
+      <c r="W25" t="n">
+        <v>100</v>
+      </c>
+      <c r="X25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB25" t="n">
         <v>200</v>
       </c>
     </row>
@@ -3211,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3220,9 +4096,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -3305,46 +4181,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>staked-ether</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STETH</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lido Staked Ether</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>wrapped-steth</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WSTETH</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3355,21 +4231,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>figure-heloc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>FIGR_HELOC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Figure Heloc</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3380,46 +4256,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>figure-heloc</t>
+          <t>leo-token</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FIGR_HELOC</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Figure Heloc</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3430,71 +4306,71 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>wrapped-eeth</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WEETH</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>no active cycle H in 5y</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>WBT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3505,21 +4381,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>leo-token</t>
+          <t>ethena-staked-usde</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SUSDE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Ethena Staked USDe</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3530,26 +4406,176 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>world-liberty-financial</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>WLFI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>World Liberty Financial</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>no active cycle H in 5y</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>monero</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>XMR</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Monero</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>no USDT pair on Binance</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dai</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>43</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bitget-token</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BGB</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bitget Token</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>no USDT pair on Binance</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>no USDT pair on Binance</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mantle</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mantle</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>no USDT pair on Binance</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>49</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>jito-staked-sol</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>JITOSOL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jito Staked SOL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>

--- a/output/omg_phase1_levels.xlsx
+++ b/output/omg_phase1_levels.xlsx
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2207260911486</v>
+        <v>2194976633470</v>
       </c>
       <c r="F2" t="n">
-        <v>110824</v>
+        <v>110246</v>
       </c>
     </row>
     <row r="3">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>519668434959</v>
+        <v>515877221117</v>
       </c>
       <c r="F3" t="n">
-        <v>4305.56</v>
+        <v>4277.35</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>168900356033</v>
+        <v>168932102510</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>168085800116</v>
+        <v>167548117149</v>
       </c>
       <c r="F5" t="n">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>119432815184</v>
+        <v>119980622452</v>
       </c>
       <c r="F6" t="n">
-        <v>858.29</v>
+        <v>862.5</v>
       </c>
     </row>
     <row r="7">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>109814431286</v>
+        <v>108417011175</v>
       </c>
       <c r="F7" t="n">
-        <v>202.99</v>
+        <v>200.57</v>
       </c>
     </row>
     <row r="8">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72563455990</v>
+        <v>72546068389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999815</v>
+        <v>0.999841</v>
       </c>
     </row>
     <row r="9">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32563674818</v>
+        <v>32597642205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.216015</v>
+        <v>0.216376</v>
       </c>
     </row>
     <row r="10">
@@ -751,24 +751,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31335712068</v>
+        <v>29877233704</v>
       </c>
       <c r="F10" t="n">
-        <v>0.331044</v>
+        <v>0.81996</v>
       </c>
     </row>
     <row r="11">
@@ -777,24 +777,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30085248039</v>
+        <v>29762744781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.824472</v>
+        <v>0.314331</v>
       </c>
     </row>
     <row r="12">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15050437950</v>
+        <v>15058495595</v>
       </c>
       <c r="F12" t="n">
-        <v>22.2</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12711530805</v>
+        <v>12763110703</v>
       </c>
       <c r="F13" t="n">
         <v>1.001</v>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12691982705</v>
+        <v>12476488117</v>
       </c>
       <c r="F14" t="n">
-        <v>46.86</v>
+        <v>46.06</v>
       </c>
     </row>
     <row r="15">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12297335271</v>
+        <v>12245407396</v>
       </c>
       <c r="F15" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -907,24 +907,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12203654764</v>
+        <v>11909755282</v>
       </c>
       <c r="F16" t="n">
-        <v>612.63</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="17">
@@ -933,24 +933,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12062855143</v>
+        <v>11860099020</v>
       </c>
       <c r="F17" t="n">
-        <v>3.38</v>
+        <v>595.46</v>
       </c>
     </row>
     <row r="18">
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11338022007</v>
+        <v>11288218564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.35748</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="19">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10233702321</v>
+        <v>10294413802</v>
       </c>
       <c r="F19" t="n">
-        <v>24.24</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="20">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9205584102</v>
+        <v>9098196902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.21724</v>
+        <v>0.21492</v>
       </c>
     </row>
     <row r="21">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9183611840</v>
+        <v>9022913992</v>
       </c>
       <c r="F21" t="n">
-        <v>0.273154</v>
+        <v>0.268478</v>
       </c>
     </row>
     <row r="22">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8815093349</v>
+        <v>8824648768</v>
       </c>
       <c r="F22" t="n">
-        <v>9.550000000000001</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="23">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8510975505</v>
+        <v>8557046836</v>
       </c>
       <c r="F23" t="n">
-        <v>111.61</v>
+        <v>112.26</v>
       </c>
     </row>
     <row r="24">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8140857490</v>
+        <v>8127576952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999763</v>
+        <v>0.999979</v>
       </c>
     </row>
     <row r="25">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7905002936</v>
+        <v>7861018920</v>
       </c>
       <c r="F25" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="26">
@@ -1181,15 +1181,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7249061873</v>
+        <v>7238048690</v>
       </c>
       <c r="F26" t="n">
-        <v>1.231e-05</v>
+        <v>1.229e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6116317449</v>
+        <v>6062261580</v>
       </c>
       <c r="F27" t="n">
-        <v>42.44</v>
+        <v>42.15</v>
       </c>
     </row>
     <row r="28">
@@ -1219,24 +1219,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>world-liberty-financial</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>WLFI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>World Liberty Financial</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5827749584</v>
+        <v>5933652473</v>
       </c>
       <c r="F28" t="n">
-        <v>3.83</v>
+        <v>0.217622</v>
       </c>
     </row>
     <row r="29">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ethena-staked-usde</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUSDE</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ethena Staked USDe</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5699655002</v>
+        <v>5823080779</v>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="30">
@@ -1271,24 +1271,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>ethena-staked-usde</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>SUSDE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Ethena Staked USDe</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5591278285</v>
+        <v>5715457337</v>
       </c>
       <c r="F30" t="n">
-        <v>9.31</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31">
@@ -1297,24 +1297,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5126478688</v>
+        <v>5605841749</v>
       </c>
       <c r="F31" t="n">
-        <v>0.744169</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="32">
@@ -1323,24 +1323,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>world-liberty-financial</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WLFI</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>World Liberty Financial</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5042687377</v>
+        <v>5082985023</v>
       </c>
       <c r="F32" t="n">
-        <v>0.184599</v>
+        <v>0.737055</v>
       </c>
     </row>
     <row r="33">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4978639869</v>
+        <v>4957469403</v>
       </c>
       <c r="F33" t="n">
-        <v>269.94</v>
+        <v>269.53</v>
       </c>
     </row>
     <row r="34">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4601951315</v>
+        <v>4543557256</v>
       </c>
       <c r="F34" t="n">
-        <v>302.33</v>
+        <v>298.53</v>
       </c>
     </row>
     <row r="35">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4520807580</v>
+        <v>4480331921</v>
       </c>
       <c r="F35" t="n">
-        <v>0.999592</v>
+        <v>0.999925</v>
       </c>
     </row>
     <row r="36">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4404756167</v>
+        <v>4407770839</v>
       </c>
       <c r="F36" t="n">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="37">
@@ -1453,24 +1453,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4066373197</v>
+        <v>4251741715</v>
       </c>
       <c r="F37" t="n">
-        <v>9.660000000000001e-06</v>
+        <v>202.85</v>
       </c>
     </row>
     <row r="38">
@@ -1479,24 +1479,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3851916915</v>
+        <v>4056997803</v>
       </c>
       <c r="F38" t="n">
-        <v>183.54</v>
+        <v>9.650000000000001e-06</v>
       </c>
     </row>
     <row r="39">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3766638226</v>
+        <v>3734645846</v>
       </c>
       <c r="F39" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="40">
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3130189300</v>
+        <v>3100501175</v>
       </c>
       <c r="F40" t="n">
-        <v>20.41</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="41">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3039923853</v>
+        <v>3042720481</v>
       </c>
       <c r="F41" t="n">
-        <v>316.64</v>
+        <v>317.23</v>
       </c>
     </row>
     <row r="42">
@@ -1583,24 +1583,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jito-staked-sol</t>
+          <t>near</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JITOSOL</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jito Staked SOL</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2998497927</v>
+        <v>3002232835</v>
       </c>
       <c r="F42" t="n">
-        <v>249.29</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="43">
@@ -1609,24 +1609,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>jito-staked-sol</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>JITOSOL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Jito Staked SOL</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2983712619</v>
+        <v>2962523083</v>
       </c>
       <c r="F43" t="n">
-        <v>2.39</v>
+        <v>246.07</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,9 +1649,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
@@ -1823,7 +1823,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2011,7 +2011,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2199,7 +2199,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2218,31 +2218,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>295.83</v>
+        <v>218</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6648</v>
+        <v>122.08</v>
       </c>
       <c r="G6" t="n">
-        <v>153.8316</v>
+        <v>113.36</v>
       </c>
       <c r="H6" t="n">
-        <v>136.0818</v>
+        <v>100.28</v>
       </c>
       <c r="I6" t="n">
-        <v>121.2903</v>
+        <v>89.38</v>
       </c>
       <c r="J6" t="n">
-        <v>103.5405</v>
+        <v>76.3</v>
       </c>
       <c r="K6" t="n">
-        <v>82.83240000000001</v>
+        <v>61.04</v>
       </c>
       <c r="L6" t="n">
-        <v>62.1243</v>
+        <v>45.78</v>
       </c>
       <c r="M6" t="n">
-        <v>56.2077</v>
+        <v>41.42</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2312,31 +2312,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.48434</v>
+        <v>0.2875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.27123</v>
+        <v>0.161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.251857</v>
+        <v>0.1495</v>
       </c>
       <c r="H7" t="n">
-        <v>0.222796</v>
+        <v>0.13225</v>
       </c>
       <c r="I7" t="n">
-        <v>0.198579</v>
+        <v>0.117875</v>
       </c>
       <c r="J7" t="n">
-        <v>0.169519</v>
+        <v>0.100625</v>
       </c>
       <c r="K7" t="n">
-        <v>0.135615</v>
+        <v>0.0805</v>
       </c>
       <c r="L7" t="n">
-        <v>0.101711</v>
+        <v>0.060375</v>
       </c>
       <c r="M7" t="n">
-        <v>0.092025</v>
+        <v>0.054625</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
@@ -2387,50 +2387,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>1.0193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.252</v>
+        <v>0.570808</v>
       </c>
       <c r="G8" t="n">
-        <v>0.234</v>
+        <v>0.530036</v>
       </c>
       <c r="H8" t="n">
-        <v>0.207</v>
+        <v>0.468878</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1845</v>
+        <v>0.417913</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1575</v>
+        <v>0.356755</v>
       </c>
       <c r="K8" t="n">
-        <v>0.126</v>
+        <v>0.285404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0945</v>
+        <v>0.214053</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.193667</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
@@ -2481,50 +2481,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.3264</v>
+        <v>0.45</v>
       </c>
       <c r="F9" t="n">
-        <v>0.742784</v>
+        <v>0.252</v>
       </c>
       <c r="G9" t="n">
-        <v>0.689728</v>
+        <v>0.234</v>
       </c>
       <c r="H9" t="n">
-        <v>0.610144</v>
+        <v>0.207</v>
       </c>
       <c r="I9" t="n">
-        <v>0.543824</v>
+        <v>0.1845</v>
       </c>
       <c r="J9" t="n">
-        <v>0.46424</v>
+        <v>0.1575</v>
       </c>
       <c r="K9" t="n">
-        <v>0.371392</v>
+        <v>0.126</v>
       </c>
       <c r="L9" t="n">
-        <v>0.278544</v>
+        <v>0.0945</v>
       </c>
       <c r="M9" t="n">
-        <v>0.252016</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="N9" t="n">
         <v>10</v>
@@ -2575,7 +2575,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2669,50 +2669,50 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>634.3</v>
+        <v>4.2989</v>
       </c>
       <c r="F11" t="n">
-        <v>355.208</v>
+        <v>2.407384</v>
       </c>
       <c r="G11" t="n">
-        <v>329.836</v>
+        <v>2.235428</v>
       </c>
       <c r="H11" t="n">
-        <v>291.778</v>
+        <v>1.977494</v>
       </c>
       <c r="I11" t="n">
-        <v>260.063</v>
+        <v>1.762549</v>
       </c>
       <c r="J11" t="n">
-        <v>222.005</v>
+        <v>1.504615</v>
       </c>
       <c r="K11" t="n">
-        <v>177.604</v>
+        <v>1.203692</v>
       </c>
       <c r="L11" t="n">
-        <v>133.203</v>
+        <v>0.902769</v>
       </c>
       <c r="M11" t="n">
-        <v>120.517</v>
+        <v>0.816791</v>
       </c>
       <c r="N11" t="n">
         <v>10</v>
@@ -2763,50 +2763,50 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.4436</v>
+        <v>634.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.488416</v>
+        <v>355.208</v>
       </c>
       <c r="G12" t="n">
-        <v>2.310672</v>
+        <v>329.836</v>
       </c>
       <c r="H12" t="n">
-        <v>2.044056</v>
+        <v>291.778</v>
       </c>
       <c r="I12" t="n">
-        <v>1.821876</v>
+        <v>260.063</v>
       </c>
       <c r="J12" t="n">
-        <v>1.55526</v>
+        <v>222.005</v>
       </c>
       <c r="K12" t="n">
-        <v>1.244208</v>
+        <v>177.604</v>
       </c>
       <c r="L12" t="n">
-        <v>0.933156</v>
+        <v>133.203</v>
       </c>
       <c r="M12" t="n">
-        <v>0.844284</v>
+        <v>120.517</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2857,7 +2857,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2951,7 +2951,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3045,7 +3045,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3139,7 +3139,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3158,31 +3158,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>147.06</v>
+        <v>134.19</v>
       </c>
       <c r="F16" t="n">
-        <v>82.3536</v>
+        <v>75.1464</v>
       </c>
       <c r="G16" t="n">
-        <v>76.4712</v>
+        <v>69.7788</v>
       </c>
       <c r="H16" t="n">
-        <v>67.6476</v>
+        <v>61.7274</v>
       </c>
       <c r="I16" t="n">
-        <v>60.2946</v>
+        <v>55.0179</v>
       </c>
       <c r="J16" t="n">
-        <v>51.471</v>
+        <v>46.9665</v>
       </c>
       <c r="K16" t="n">
-        <v>41.1768</v>
+        <v>37.5732</v>
       </c>
       <c r="L16" t="n">
-        <v>30.8826</v>
+        <v>28.1799</v>
       </c>
       <c r="M16" t="n">
-        <v>27.9414</v>
+        <v>25.4961</v>
       </c>
       <c r="N16" t="n">
         <v>10</v>
@@ -3233,7 +3233,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3327,50 +3327,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>world-liberty-financial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>WLFI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>World Liberty Financial</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.649</v>
+        <v>0.478</v>
       </c>
       <c r="F18" t="n">
-        <v>6.52344</v>
+        <v>0.26768</v>
       </c>
       <c r="G18" t="n">
-        <v>6.05748</v>
+        <v>0.24856</v>
       </c>
       <c r="H18" t="n">
-        <v>5.35854</v>
+        <v>0.21988</v>
       </c>
       <c r="I18" t="n">
-        <v>4.77609</v>
+        <v>0.19598</v>
       </c>
       <c r="J18" t="n">
-        <v>4.07715</v>
+        <v>0.1673</v>
       </c>
       <c r="K18" t="n">
-        <v>3.26172</v>
+        <v>0.13384</v>
       </c>
       <c r="L18" t="n">
-        <v>2.44629</v>
+        <v>0.10038</v>
       </c>
       <c r="M18" t="n">
-        <v>2.21331</v>
+        <v>0.09082</v>
       </c>
       <c r="N18" t="n">
         <v>10</v>
@@ -3421,50 +3421,50 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12.3</v>
+        <v>11.649</v>
       </c>
       <c r="F19" t="n">
-        <v>6.888</v>
+        <v>6.52344</v>
       </c>
       <c r="G19" t="n">
-        <v>6.396</v>
+        <v>6.05748</v>
       </c>
       <c r="H19" t="n">
-        <v>5.658</v>
+        <v>5.35854</v>
       </c>
       <c r="I19" t="n">
-        <v>5.043</v>
+        <v>4.77609</v>
       </c>
       <c r="J19" t="n">
-        <v>4.305</v>
+        <v>4.07715</v>
       </c>
       <c r="K19" t="n">
-        <v>3.444</v>
+        <v>3.26172</v>
       </c>
       <c r="L19" t="n">
-        <v>2.583</v>
+        <v>2.44629</v>
       </c>
       <c r="M19" t="n">
-        <v>2.337</v>
+        <v>2.21331</v>
       </c>
       <c r="N19" t="n">
         <v>10</v>
@@ -3515,50 +3515,50 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8555</v>
+        <v>12.3</v>
       </c>
       <c r="F20" t="n">
-        <v>0.47908</v>
+        <v>6.888</v>
       </c>
       <c r="G20" t="n">
-        <v>0.44486</v>
+        <v>6.396</v>
       </c>
       <c r="H20" t="n">
-        <v>0.39353</v>
+        <v>5.658</v>
       </c>
       <c r="I20" t="n">
-        <v>0.350755</v>
+        <v>5.043</v>
       </c>
       <c r="J20" t="n">
-        <v>0.299425</v>
+        <v>4.305</v>
       </c>
       <c r="K20" t="n">
-        <v>0.23954</v>
+        <v>3.444</v>
       </c>
       <c r="L20" t="n">
-        <v>0.179655</v>
+        <v>2.583</v>
       </c>
       <c r="M20" t="n">
-        <v>0.162545</v>
+        <v>2.337</v>
       </c>
       <c r="N20" t="n">
         <v>10</v>
@@ -3609,50 +3609,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>385.99</v>
+        <v>0.8555</v>
       </c>
       <c r="F21" t="n">
-        <v>216.1544</v>
+        <v>0.47908</v>
       </c>
       <c r="G21" t="n">
-        <v>200.7148</v>
+        <v>0.44486</v>
       </c>
       <c r="H21" t="n">
-        <v>177.5554</v>
+        <v>0.39353</v>
       </c>
       <c r="I21" t="n">
-        <v>158.2559</v>
+        <v>0.350755</v>
       </c>
       <c r="J21" t="n">
-        <v>135.0965</v>
+        <v>0.299425</v>
       </c>
       <c r="K21" t="n">
-        <v>108.0772</v>
+        <v>0.23954</v>
       </c>
       <c r="L21" t="n">
-        <v>81.0579</v>
+        <v>0.179655</v>
       </c>
       <c r="M21" t="n">
-        <v>73.3381</v>
+        <v>0.162545</v>
       </c>
       <c r="N21" t="n">
         <v>10</v>
@@ -3703,50 +3703,50 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.6e-05</v>
+        <v>385.99</v>
       </c>
       <c r="F22" t="n">
-        <v>9e-06</v>
+        <v>216.1544</v>
       </c>
       <c r="G22" t="n">
-        <v>8e-06</v>
+        <v>200.7148</v>
       </c>
       <c r="H22" t="n">
-        <v>8e-06</v>
+        <v>177.5554</v>
       </c>
       <c r="I22" t="n">
-        <v>7e-06</v>
+        <v>158.2559</v>
       </c>
       <c r="J22" t="n">
-        <v>6e-06</v>
+        <v>135.0965</v>
       </c>
       <c r="K22" t="n">
-        <v>5e-06</v>
+        <v>108.0772</v>
       </c>
       <c r="L22" t="n">
-        <v>3e-06</v>
+        <v>81.0579</v>
       </c>
       <c r="M22" t="n">
-        <v>3e-06</v>
+        <v>73.3381</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -3797,50 +3797,50 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>39.97</v>
+        <v>1.6e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>22.3832</v>
+        <v>9e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>20.7844</v>
+        <v>8e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>18.3862</v>
+        <v>8e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>16.3877</v>
+        <v>7e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>13.9895</v>
+        <v>6e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>11.1916</v>
+        <v>5e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>8.393700000000001</v>
+        <v>3e-06</v>
       </c>
       <c r="M23" t="n">
-        <v>7.5943</v>
+        <v>3e-06</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
@@ -3891,50 +3891,50 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>500</v>
+        <v>25.93</v>
       </c>
       <c r="F24" t="n">
-        <v>280</v>
+        <v>14.5208</v>
       </c>
       <c r="G24" t="n">
-        <v>260</v>
+        <v>13.4836</v>
       </c>
       <c r="H24" t="n">
-        <v>230</v>
+        <v>11.9278</v>
       </c>
       <c r="I24" t="n">
-        <v>205</v>
+        <v>10.6313</v>
       </c>
       <c r="J24" t="n">
-        <v>175</v>
+        <v>9.0755</v>
       </c>
       <c r="K24" t="n">
-        <v>140</v>
+        <v>7.2604</v>
       </c>
       <c r="L24" t="n">
-        <v>105</v>
+        <v>5.4453</v>
       </c>
       <c r="M24" t="n">
-        <v>95</v>
+        <v>4.9267</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
@@ -3985,50 +3985,50 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.244</v>
+        <v>500</v>
       </c>
       <c r="F25" t="n">
-        <v>4.61664</v>
+        <v>280</v>
       </c>
       <c r="G25" t="n">
-        <v>4.28688</v>
+        <v>260</v>
       </c>
       <c r="H25" t="n">
-        <v>3.79224</v>
+        <v>230</v>
       </c>
       <c r="I25" t="n">
-        <v>3.38004</v>
+        <v>205</v>
       </c>
       <c r="J25" t="n">
-        <v>2.8854</v>
+        <v>175</v>
       </c>
       <c r="K25" t="n">
-        <v>2.30832</v>
+        <v>140</v>
       </c>
       <c r="L25" t="n">
-        <v>1.73124</v>
+        <v>105</v>
       </c>
       <c r="M25" t="n">
-        <v>1.56636</v>
+        <v>95</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
@@ -4073,6 +4073,100 @@
         <v>200</v>
       </c>
       <c r="AB25" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NEAR</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NEAR Protocol</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>8.244</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.61664</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.28688</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.79224</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.38004</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.8854</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.30832</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.73124</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.56636</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" t="n">
+        <v>20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="n">
+        <v>20</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>100</v>
+      </c>
+      <c r="W26" t="n">
+        <v>100</v>
+      </c>
+      <c r="X26" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB26" t="n">
         <v>200</v>
       </c>
     </row>
@@ -4087,7 +4181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4096,9 +4190,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -4356,7 +4450,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4381,7 +4475,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4406,96 +4500,96 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>world-liberty-financial</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WLFI</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>World Liberty Financial</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>no active cycle H in 5y</t>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>bitget-token</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bitget-token</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4506,21 +4600,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4531,49 +4625,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>jito-staked-sol</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>JITOSOL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Jito Staked SOL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t>no USDT pair on Binance</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>49</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>jito-staked-sol</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>JITOSOL</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Jito Staked SOL</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>no USDT pair on Binance</t>
         </is>

--- a/output/omg_phase1_levels.xlsx
+++ b/output/omg_phase1_levels.xlsx
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2194976633470</v>
+        <v>2277236459052</v>
       </c>
       <c r="F2" t="n">
-        <v>110246</v>
+        <v>114330</v>
       </c>
     </row>
     <row r="3">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>515877221117</v>
+        <v>533655261873</v>
       </c>
       <c r="F3" t="n">
-        <v>4277.35</v>
+        <v>4419.34</v>
       </c>
     </row>
     <row r="4">
@@ -595,24 +595,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>ripple</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tether</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>168932102510</v>
+        <v>179906160927</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="5">
@@ -621,24 +621,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ripple</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>USDT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>167548117149</v>
+        <v>169423484830</v>
       </c>
       <c r="F5" t="n">
-        <v>2.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>119980622452</v>
+        <v>124810539960</v>
       </c>
       <c r="F6" t="n">
-        <v>862.5</v>
+        <v>896.9299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>108417011175</v>
+        <v>122421331270</v>
       </c>
       <c r="F7" t="n">
-        <v>200.57</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="8">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72546068389</v>
+        <v>72439239779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999841</v>
+        <v>0.999761</v>
       </c>
     </row>
     <row r="9">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32597642205</v>
+        <v>37847511498</v>
       </c>
       <c r="F9" t="n">
-        <v>0.216376</v>
+        <v>0.250786</v>
       </c>
     </row>
     <row r="10">
@@ -751,24 +751,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29877233704</v>
+        <v>32724681642</v>
       </c>
       <c r="F10" t="n">
-        <v>0.81996</v>
+        <v>0.345686</v>
       </c>
     </row>
     <row r="11">
@@ -777,24 +777,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29762744781</v>
+        <v>32210014186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.314331</v>
+        <v>0.882376</v>
       </c>
     </row>
     <row r="12">
@@ -817,36 +817,36 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15058495595</v>
+        <v>16407357734</v>
       </c>
       <c r="F12" t="n">
-        <v>22.24</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12763110703</v>
+        <v>15053187837</v>
       </c>
       <c r="F13" t="n">
-        <v>1.001</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="14">
@@ -855,24 +855,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12476488117</v>
+        <v>13193912896</v>
       </c>
       <c r="F14" t="n">
-        <v>46.06</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="15">
@@ -881,24 +881,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>figure-heloc</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FIGR_HELOC</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Figure Heloc</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12245407396</v>
+        <v>12909063839</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="16">
@@ -907,24 +907,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>figure-heloc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>FIGR_HELOC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Figure Heloc</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11909755282</v>
+        <v>12789827641</v>
       </c>
       <c r="F16" t="n">
-        <v>3.34</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="17">
@@ -933,50 +933,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11860099020</v>
+        <v>12422027637</v>
       </c>
       <c r="F17" t="n">
-        <v>595.46</v>
+        <v>0.390795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11288218564</v>
+        <v>12209777387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.356</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="19">
@@ -985,24 +985,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10294413802</v>
+        <v>11730188620</v>
       </c>
       <c r="F19" t="n">
-        <v>24.39</v>
+        <v>588.76</v>
       </c>
     </row>
     <row r="20">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9098196902</v>
+        <v>10003372952</v>
       </c>
       <c r="F20" t="n">
-        <v>0.21492</v>
+        <v>0.235723</v>
       </c>
     </row>
     <row r="21">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>leo-token</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9022913992</v>
+        <v>8855344307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.268478</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="22">
@@ -1063,24 +1063,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>leo-token</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8824648768</v>
+        <v>8789916045</v>
       </c>
       <c r="F22" t="n">
-        <v>9.56</v>
+        <v>115.21</v>
       </c>
     </row>
     <row r="23">
@@ -1089,24 +1089,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8557046836</v>
+        <v>8733064659</v>
       </c>
       <c r="F23" t="n">
-        <v>112.26</v>
+        <v>0.259813</v>
       </c>
     </row>
     <row r="24">
@@ -1115,24 +1115,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8127576952</v>
+        <v>8167225556</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999979</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="25">
@@ -1141,24 +1141,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7861018920</v>
+        <v>7961132250</v>
       </c>
       <c r="F25" t="n">
-        <v>3.06</v>
+        <v>0.999618</v>
       </c>
     </row>
     <row r="26">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7238048690</v>
+        <v>7712184682</v>
       </c>
       <c r="F26" t="n">
-        <v>1.229e-05</v>
+        <v>1.309e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>whitebit</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WBT</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6062261580</v>
+        <v>6421751102</v>
       </c>
       <c r="F27" t="n">
-        <v>42.15</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="28">
@@ -1219,24 +1219,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>world-liberty-financial</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WLFI</t>
+          <t>WBT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>World Liberty Financial</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5933652473</v>
+        <v>6255905910</v>
       </c>
       <c r="F28" t="n">
-        <v>0.217622</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="29">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5823080779</v>
+        <v>5913690421</v>
       </c>
       <c r="F29" t="n">
-        <v>3.83</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="30">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5715457337</v>
+        <v>5777605904</v>
       </c>
       <c r="F30" t="n">
         <v>1.2</v>
@@ -1297,24 +1297,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5605841749</v>
+        <v>5310895203</v>
       </c>
       <c r="F31" t="n">
-        <v>9.34</v>
+        <v>0.769216</v>
       </c>
     </row>
     <row r="32">
@@ -1323,24 +1323,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>world-liberty-financial</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>WLFI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>World Liberty Financial</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5082985023</v>
+        <v>5277061567</v>
       </c>
       <c r="F32" t="n">
-        <v>0.737055</v>
+        <v>0.193348</v>
       </c>
     </row>
     <row r="33">
@@ -1349,24 +1349,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4957469403</v>
+        <v>5274227367</v>
       </c>
       <c r="F33" t="n">
-        <v>269.53</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="34">
@@ -1375,24 +1375,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4543557256</v>
+        <v>4962554333</v>
       </c>
       <c r="F34" t="n">
-        <v>298.53</v>
+        <v>269.03</v>
       </c>
     </row>
     <row r="35">
@@ -1401,24 +1401,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4480331921</v>
+        <v>4682683983</v>
       </c>
       <c r="F35" t="n">
-        <v>0.999925</v>
+        <v>307.34</v>
       </c>
     </row>
     <row r="36">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4407770839</v>
+        <v>4496981395</v>
       </c>
       <c r="F36" t="n">
-        <v>4.79</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="37">
@@ -1453,24 +1453,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4251741715</v>
+        <v>4456244717</v>
       </c>
       <c r="F37" t="n">
-        <v>202.85</v>
+        <v>0.999922</v>
       </c>
     </row>
     <row r="38">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4056997803</v>
+        <v>4447367924</v>
       </c>
       <c r="F38" t="n">
-        <v>9.650000000000001e-06</v>
+        <v>1.057e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1505,24 +1505,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3734645846</v>
+        <v>4089761026</v>
       </c>
       <c r="F39" t="n">
-        <v>1.15</v>
+        <v>194.74</v>
       </c>
     </row>
     <row r="40">
@@ -1531,24 +1531,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3100501175</v>
+        <v>3439558823</v>
       </c>
       <c r="F40" t="n">
-        <v>20.26</v>
+        <v>357.87</v>
       </c>
     </row>
     <row r="41">
@@ -1557,24 +1557,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>near</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3042720481</v>
+        <v>3406829138</v>
       </c>
       <c r="F41" t="n">
-        <v>317.23</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="42">
@@ -1583,24 +1583,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3002232835</v>
+        <v>3387370514</v>
       </c>
       <c r="F42" t="n">
-        <v>2.4</v>
+        <v>1.071</v>
       </c>
     </row>
     <row r="43">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2962523083</v>
+        <v>3335418110</v>
       </c>
       <c r="F43" t="n">
-        <v>246.07</v>
+        <v>277.29</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,7 +1823,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2011,7 +2011,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2105,7 +2105,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2124,31 +2124,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>900.71</v>
+        <v>907.38</v>
       </c>
       <c r="F5" t="n">
-        <v>504.3976</v>
+        <v>508.1328</v>
       </c>
       <c r="G5" t="n">
-        <v>468.3692</v>
+        <v>471.8376</v>
       </c>
       <c r="H5" t="n">
-        <v>414.3266</v>
+        <v>417.3948</v>
       </c>
       <c r="I5" t="n">
-        <v>369.2911</v>
+        <v>372.0258</v>
       </c>
       <c r="J5" t="n">
-        <v>315.2485</v>
+        <v>317.583</v>
       </c>
       <c r="K5" t="n">
-        <v>252.1988</v>
+        <v>254.0664</v>
       </c>
       <c r="L5" t="n">
-        <v>189.1491</v>
+        <v>190.5498</v>
       </c>
       <c r="M5" t="n">
-        <v>171.1349</v>
+        <v>172.4022</v>
       </c>
       <c r="N5" t="n">
         <v>10</v>
@@ -2199,7 +2199,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2218,31 +2218,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>218</v>
+        <v>228.95</v>
       </c>
       <c r="F6" t="n">
-        <v>122.08</v>
+        <v>128.212</v>
       </c>
       <c r="G6" t="n">
-        <v>113.36</v>
+        <v>119.054</v>
       </c>
       <c r="H6" t="n">
-        <v>100.28</v>
+        <v>105.317</v>
       </c>
       <c r="I6" t="n">
-        <v>89.38</v>
+        <v>93.8695</v>
       </c>
       <c r="J6" t="n">
-        <v>76.3</v>
+        <v>80.13249999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>61.04</v>
+        <v>64.10599999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>45.78</v>
+        <v>48.0795</v>
       </c>
       <c r="M6" t="n">
-        <v>41.42</v>
+        <v>43.5005</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2387,50 +2387,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.0193</v>
+        <v>0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>0.570808</v>
+        <v>0.252</v>
       </c>
       <c r="G8" t="n">
-        <v>0.530036</v>
+        <v>0.234</v>
       </c>
       <c r="H8" t="n">
-        <v>0.468878</v>
+        <v>0.207</v>
       </c>
       <c r="I8" t="n">
-        <v>0.417913</v>
+        <v>0.1845</v>
       </c>
       <c r="J8" t="n">
-        <v>0.356755</v>
+        <v>0.1575</v>
       </c>
       <c r="K8" t="n">
-        <v>0.285404</v>
+        <v>0.126</v>
       </c>
       <c r="L8" t="n">
-        <v>0.214053</v>
+        <v>0.0945</v>
       </c>
       <c r="M8" t="n">
-        <v>0.193667</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
@@ -2481,50 +2481,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>1.0193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.252</v>
+        <v>0.570808</v>
       </c>
       <c r="G9" t="n">
-        <v>0.234</v>
+        <v>0.530036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.207</v>
+        <v>0.468878</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1845</v>
+        <v>0.417913</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1575</v>
+        <v>0.356755</v>
       </c>
       <c r="K9" t="n">
-        <v>0.126</v>
+        <v>0.285404</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0945</v>
+        <v>0.214053</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.193667</v>
       </c>
       <c r="N9" t="n">
         <v>10</v>
@@ -2575,7 +2575,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2669,7 +2669,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2763,50 +2763,50 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>634.3</v>
+        <v>0.5206</v>
       </c>
       <c r="F12" t="n">
-        <v>355.208</v>
+        <v>0.291536</v>
       </c>
       <c r="G12" t="n">
-        <v>329.836</v>
+        <v>0.270712</v>
       </c>
       <c r="H12" t="n">
-        <v>291.778</v>
+        <v>0.239476</v>
       </c>
       <c r="I12" t="n">
-        <v>260.063</v>
+        <v>0.213446</v>
       </c>
       <c r="J12" t="n">
-        <v>222.005</v>
+        <v>0.18221</v>
       </c>
       <c r="K12" t="n">
-        <v>177.604</v>
+        <v>0.145768</v>
       </c>
       <c r="L12" t="n">
-        <v>133.203</v>
+        <v>0.109326</v>
       </c>
       <c r="M12" t="n">
-        <v>120.517</v>
+        <v>0.098914</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2857,50 +2857,50 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5206</v>
+        <v>29.99</v>
       </c>
       <c r="F13" t="n">
-        <v>0.291536</v>
+        <v>16.7944</v>
       </c>
       <c r="G13" t="n">
-        <v>0.270712</v>
+        <v>15.5948</v>
       </c>
       <c r="H13" t="n">
-        <v>0.239476</v>
+        <v>13.7954</v>
       </c>
       <c r="I13" t="n">
-        <v>0.213446</v>
+        <v>12.2959</v>
       </c>
       <c r="J13" t="n">
-        <v>0.18221</v>
+        <v>10.4965</v>
       </c>
       <c r="K13" t="n">
-        <v>0.145768</v>
+        <v>8.3972</v>
       </c>
       <c r="L13" t="n">
-        <v>0.109326</v>
+        <v>6.2979</v>
       </c>
       <c r="M13" t="n">
-        <v>0.098914</v>
+        <v>5.6981</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
@@ -2951,50 +2951,50 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>55.79</v>
+        <v>634.3</v>
       </c>
       <c r="F14" t="n">
-        <v>31.2424</v>
+        <v>355.208</v>
       </c>
       <c r="G14" t="n">
-        <v>29.0108</v>
+        <v>329.836</v>
       </c>
       <c r="H14" t="n">
-        <v>25.6634</v>
+        <v>291.778</v>
       </c>
       <c r="I14" t="n">
-        <v>22.8739</v>
+        <v>260.063</v>
       </c>
       <c r="J14" t="n">
-        <v>19.5265</v>
+        <v>222.005</v>
       </c>
       <c r="K14" t="n">
-        <v>15.6212</v>
+        <v>177.604</v>
       </c>
       <c r="L14" t="n">
-        <v>11.7159</v>
+        <v>133.203</v>
       </c>
       <c r="M14" t="n">
-        <v>10.6001</v>
+        <v>120.517</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
@@ -3045,7 +3045,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3139,7 +3139,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3327,50 +3327,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>world-liberty-financial</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WLFI</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>World Liberty Financial</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.478</v>
+        <v>11.649</v>
       </c>
       <c r="F18" t="n">
-        <v>0.26768</v>
+        <v>6.52344</v>
       </c>
       <c r="G18" t="n">
-        <v>0.24856</v>
+        <v>6.05748</v>
       </c>
       <c r="H18" t="n">
-        <v>0.21988</v>
+        <v>5.35854</v>
       </c>
       <c r="I18" t="n">
-        <v>0.19598</v>
+        <v>4.77609</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1673</v>
+        <v>4.07715</v>
       </c>
       <c r="K18" t="n">
-        <v>0.13384</v>
+        <v>3.26172</v>
       </c>
       <c r="L18" t="n">
-        <v>0.10038</v>
+        <v>2.44629</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09082</v>
+        <v>2.21331</v>
       </c>
       <c r="N18" t="n">
         <v>10</v>
@@ -3421,50 +3421,50 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.649</v>
+        <v>12.3</v>
       </c>
       <c r="F19" t="n">
-        <v>6.52344</v>
+        <v>6.888</v>
       </c>
       <c r="G19" t="n">
-        <v>6.05748</v>
+        <v>6.396</v>
       </c>
       <c r="H19" t="n">
-        <v>5.35854</v>
+        <v>5.658</v>
       </c>
       <c r="I19" t="n">
-        <v>4.77609</v>
+        <v>5.043</v>
       </c>
       <c r="J19" t="n">
-        <v>4.07715</v>
+        <v>4.305</v>
       </c>
       <c r="K19" t="n">
-        <v>3.26172</v>
+        <v>3.444</v>
       </c>
       <c r="L19" t="n">
-        <v>2.44629</v>
+        <v>2.583</v>
       </c>
       <c r="M19" t="n">
-        <v>2.21331</v>
+        <v>2.337</v>
       </c>
       <c r="N19" t="n">
         <v>10</v>
@@ -3515,50 +3515,50 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.3</v>
+        <v>0.8727</v>
       </c>
       <c r="F20" t="n">
-        <v>6.888</v>
+        <v>0.488712</v>
       </c>
       <c r="G20" t="n">
-        <v>6.396</v>
+        <v>0.453804</v>
       </c>
       <c r="H20" t="n">
-        <v>5.658</v>
+        <v>0.401442</v>
       </c>
       <c r="I20" t="n">
-        <v>5.043</v>
+        <v>0.357807</v>
       </c>
       <c r="J20" t="n">
-        <v>4.305</v>
+        <v>0.305445</v>
       </c>
       <c r="K20" t="n">
-        <v>3.444</v>
+        <v>0.244356</v>
       </c>
       <c r="L20" t="n">
-        <v>2.583</v>
+        <v>0.183267</v>
       </c>
       <c r="M20" t="n">
-        <v>2.337</v>
+        <v>0.165813</v>
       </c>
       <c r="N20" t="n">
         <v>10</v>
@@ -3609,50 +3609,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>world-liberty-financial</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>WLFI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>World Liberty Financial</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8555</v>
+        <v>0.478</v>
       </c>
       <c r="F21" t="n">
-        <v>0.47908</v>
+        <v>0.26768</v>
       </c>
       <c r="G21" t="n">
-        <v>0.44486</v>
+        <v>0.24856</v>
       </c>
       <c r="H21" t="n">
-        <v>0.39353</v>
+        <v>0.21988</v>
       </c>
       <c r="I21" t="n">
-        <v>0.350755</v>
+        <v>0.19598</v>
       </c>
       <c r="J21" t="n">
-        <v>0.299425</v>
+        <v>0.1673</v>
       </c>
       <c r="K21" t="n">
-        <v>0.23954</v>
+        <v>0.13384</v>
       </c>
       <c r="L21" t="n">
-        <v>0.179655</v>
+        <v>0.10038</v>
       </c>
       <c r="M21" t="n">
-        <v>0.162545</v>
+        <v>0.09082</v>
       </c>
       <c r="N21" t="n">
         <v>10</v>
@@ -3703,7 +3703,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3797,7 +3797,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3891,50 +3891,50 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.93</v>
+        <v>500</v>
       </c>
       <c r="F24" t="n">
-        <v>14.5208</v>
+        <v>280</v>
       </c>
       <c r="G24" t="n">
-        <v>13.4836</v>
+        <v>260</v>
       </c>
       <c r="H24" t="n">
-        <v>11.9278</v>
+        <v>230</v>
       </c>
       <c r="I24" t="n">
-        <v>10.6313</v>
+        <v>205</v>
       </c>
       <c r="J24" t="n">
-        <v>9.0755</v>
+        <v>175</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2604</v>
+        <v>140</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4453</v>
+        <v>105</v>
       </c>
       <c r="M24" t="n">
-        <v>4.9267</v>
+        <v>95</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
@@ -3985,50 +3985,50 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>near</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>500</v>
+        <v>8.244</v>
       </c>
       <c r="F25" t="n">
-        <v>280</v>
+        <v>4.61664</v>
       </c>
       <c r="G25" t="n">
-        <v>260</v>
+        <v>4.28688</v>
       </c>
       <c r="H25" t="n">
-        <v>230</v>
+        <v>3.79224</v>
       </c>
       <c r="I25" t="n">
-        <v>205</v>
+        <v>3.38004</v>
       </c>
       <c r="J25" t="n">
-        <v>175</v>
+        <v>2.8854</v>
       </c>
       <c r="K25" t="n">
-        <v>140</v>
+        <v>2.30832</v>
       </c>
       <c r="L25" t="n">
-        <v>105</v>
+        <v>1.73124</v>
       </c>
       <c r="M25" t="n">
-        <v>95</v>
+        <v>1.56636</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
@@ -4073,100 +4073,6 @@
         <v>200</v>
       </c>
       <c r="AB25" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-09-07</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>near</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>NEAR</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NEAR Protocol</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>8.244</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4.61664</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.28688</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.79224</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.38004</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.8854</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.30832</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.73124</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.56636</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" t="n">
-        <v>10</v>
-      </c>
-      <c r="P26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>10</v>
-      </c>
-      <c r="R26" t="n">
-        <v>20</v>
-      </c>
-      <c r="S26" t="n">
-        <v>20</v>
-      </c>
-      <c r="T26" t="n">
-        <v>20</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="V26" t="n">
-        <v>100</v>
-      </c>
-      <c r="W26" t="n">
-        <v>100</v>
-      </c>
-      <c r="X26" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB26" t="n">
         <v>200</v>
       </c>
     </row>
@@ -4181,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,7 +4131,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4275,26 +4181,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>
@@ -4304,28 +4210,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4354,17 +4260,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>leo-token</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>LEO Token</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4375,21 +4281,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>leo-token</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEO Token</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4404,22 +4310,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>no active cycle H in 5y</t>
         </is>
       </c>
     </row>
@@ -4429,28 +4335,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>no active cycle H in 5y</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4504,17 +4410,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4525,26 +4431,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>stable</t>
+          <t>no USDT pair on Binance</t>
         </is>
       </c>
     </row>
@@ -4579,22 +4485,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>no USDT pair on Binance</t>
+          <t>stable</t>
         </is>
       </c>
     </row>
@@ -4604,17 +4510,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4625,24 +4531,49 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>49</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ondo-finance</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ONDO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ondo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>no active cycle H in 5y</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>50</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>jito-staked-sol</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>JITOSOL</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Jito Staked SOL</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>no USDT pair on Binance</t>
         </is>
